--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1061.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1061.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.028324415391873</v>
+        <v>1.029073711166521</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.198629003372594</v>
+        <v>1.200415111962569</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.2069368007908503</v>
+        <v>0.2066185721044859</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.8974501495687148</v>
+        <v>0.8990833239717402</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.2069368007908503</v>
+        <v>0.2066185721044859</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.8974501495687148</v>
+        <v>0.8990833239717402</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.2069368007908503</v>
+        <v>0.2066185721044859</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.8974501495687148</v>
+        <v>0.8990833239717402</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.392965591834629</v>
+        <v>0.3934908083357203</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.8751673321908162</v>
+        <v>0.8767392713069937</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.392965591834629</v>
+        <v>0.3934908083357203</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.8751673321908162</v>
+        <v>0.8767392713069937</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.092491484765575</v>
+        <v>1.093681132452851</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.03413123076577487</v>
+        <v>0.03377442325403778</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.004432553855831</v>
+        <v>1.005431614888694</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.6134019834868529</v>
+        <v>0.6150273656752869</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.2</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.8974501495687148</v>
+        <v>0.8990833239717402</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.2</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.8986348467279955</v>
+        <v>0.9002125944068098</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.2</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.8998195438872763</v>
+        <v>0.9013418648418794</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.392965591834629</v>
+        <v>0.3934908083357203</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.8751673321908162</v>
+        <v>0.8767392713069937</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.392965591834629</v>
+        <v>0.3934908083357203</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.6915324792309725</v>
+        <v>0.693414435003314</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.04550830768769983</v>
+        <v>0.04503256433871704</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>0.9827603685312418</v>
+        <v>0.9840244275370875</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.5924685368659168</v>
+        <v>0.5940881699049901</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.8974501495687148</v>
+        <v>0.8990833239717402</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.7704615698209053</v>
+        <v>0.7722606254007001</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.6434729900730958</v>
+        <v>0.6454379268296599</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.392965591834629</v>
+        <v>0.3934908083357203</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.8751673321908162</v>
+        <v>0.8767392713069937</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.392965591834629</v>
+        <v>0.3934908083357203</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.6434729900731027</v>
+        <v>0.6454379268296566</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.0558283959375039</v>
+        <v>0.0552264630775774</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>0.9479875291068509</v>
+        <v>0.9494266817446224</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.07238689090149963</v>
+        <v>0.07170158012160843</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.8998195438872763</v>
+        <v>0.9013418648418794</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.09532402672034468</v>
+        <v>0.09459911198005744</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.8494578552796649</v>
+        <v>0.85104829007702</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.1193057832001596</v>
+        <v>0.1185484332966572</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.7942820994084465</v>
+        <v>0.7959076111068988</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.1455799526626445</v>
+        <v>0.1448058994729053</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.7359131046388003</v>
+        <v>0.7375517793677284</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.392965591834629</v>
+        <v>0.3934908083357203</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1733747120767618</v>
+        <v>0.1725943907772722</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.6754431932016496</v>
+        <v>0.6770806132436507</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.2021699079992145</v>
+        <v>0.2013901841696902</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.6134019834868529</v>
+        <v>0.6150273656752869</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>7.85931183669258</v>
+        <v>7.869816166714406</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.2317133411967367</v>
+        <v>0.2309393496784349</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.5924685368659168</v>
+        <v>0.5940881699049901</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.342965591834629</v>
+        <v>0.3434908083357203</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.35</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.35</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.2133201922860929</v>
+        <v>0.2110901453377361</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.2133201922860929</v>
+        <v>0.2110901453377361</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.35</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.35</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.213320192286093</v>
+        <v>0.2110901453377362</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.4266403845721859</v>
+        <v>0.4221802906754723</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.3870033093676528</v>
+        <v>0.3822712027072633</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.8136436939398387</v>
+        <v>0.8044514933827356</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.24188712229968</v>
+        <v>1.235633778302327</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>2.055530816239519</v>
+        <v>2.040085271685063</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>3.440570372826756</v>
+        <v>3.434629778767351</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>5.496101189066275</v>
+        <v>5.474715050452414</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>7.194526943944481</v>
+        <v>7.184796394979925</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>12.69062813301076</v>
+        <v>12.65951144543234</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>15.76450167749096</v>
+        <v>15.75447970574891</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>28.45512981050172</v>
+        <v>28.41399115118125</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>33.35371129694072</v>
+        <v>33.34618956524019</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>61.80884110744243</v>
+        <v>61.76018071642144</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>69.10847021388658</v>
+        <v>69.10990414180324</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>130.917311321329</v>
+        <v>130.8700848582247</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>141.8084793481064</v>
+        <v>141.8359944419745</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>272.7257906694354</v>
+        <v>272.7060793001992</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>71.77181698606699</v>
+        <v>71.79152835530323</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
